--- a/shipClassTests/testResults/unmannedShipTestOutput.xlsx
+++ b/shipClassTests/testResults/unmannedShipTestOutput.xlsx
@@ -515,7 +515,7 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D4">
         <v>2</v>
@@ -535,7 +535,7 @@
         <v>2</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D5">
         <v>2</v>
@@ -552,19 +552,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E6">
         <v>2</v>
       </c>
       <c r="F6" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -572,19 +572,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -592,19 +592,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -612,19 +612,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -632,19 +632,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -652,19 +652,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -672,19 +672,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -692,19 +692,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -712,19 +712,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -732,19 +732,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -752,19 +752,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -772,19 +772,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -792,19 +792,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -812,19 +812,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -832,19 +832,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -852,19 +852,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -872,19 +872,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -901,10 +901,10 @@
         <v>1</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -921,10 +921,10 @@
         <v>1</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -941,10 +941,10 @@
         <v>1</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -961,10 +961,10 @@
         <v>1</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F26" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -981,10 +981,10 @@
         <v>1</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F27" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1001,10 +1001,10 @@
         <v>1</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F28" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1021,10 +1021,10 @@
         <v>1</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F29" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1041,10 +1041,10 @@
         <v>1</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F30" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1061,10 +1061,10 @@
         <v>1</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F31" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1081,10 +1081,10 @@
         <v>1</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F32" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1101,10 +1101,10 @@
         <v>1</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F33" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1121,10 +1121,10 @@
         <v>1</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F34" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1141,7 +1141,7 @@
         <v>1</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F35" s="4">
         <v>1</v>
@@ -1161,7 +1161,7 @@
         <v>1</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F36" s="4">
         <v>1</v>
@@ -1181,7 +1181,7 @@
         <v>1</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F37" s="4">
         <v>1</v>
@@ -1201,7 +1201,7 @@
         <v>1</v>
       </c>
       <c r="E38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F38" s="4">
         <v>1</v>
@@ -1221,7 +1221,7 @@
         <v>1</v>
       </c>
       <c r="E39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F39" s="4">
         <v>1</v>
@@ -1241,7 +1241,7 @@
         <v>1</v>
       </c>
       <c r="E40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F40" s="4">
         <v>1</v>
@@ -1261,7 +1261,7 @@
         <v>1</v>
       </c>
       <c r="E41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F41" s="4">
         <v>1</v>
@@ -1281,7 +1281,7 @@
         <v>1</v>
       </c>
       <c r="E42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F42" s="4">
         <v>1</v>
@@ -1301,7 +1301,7 @@
         <v>1</v>
       </c>
       <c r="E43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F43" s="4">
         <v>1</v>
@@ -1321,7 +1321,7 @@
         <v>1</v>
       </c>
       <c r="E44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F44" s="4">
         <v>1</v>
@@ -1341,7 +1341,7 @@
         <v>1</v>
       </c>
       <c r="E45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F45" s="4">
         <v>1</v>
@@ -1361,7 +1361,7 @@
         <v>1</v>
       </c>
       <c r="E46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F46" s="4">
         <v>1</v>
@@ -1381,7 +1381,7 @@
         <v>1</v>
       </c>
       <c r="E47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F47" s="4">
         <v>1</v>
@@ -1401,7 +1401,7 @@
         <v>1</v>
       </c>
       <c r="E48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F48" s="4">
         <v>1</v>
@@ -1421,10 +1421,10 @@
         <v>1</v>
       </c>
       <c r="E49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F49" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1441,10 +1441,10 @@
         <v>1</v>
       </c>
       <c r="E50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F50" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1461,10 +1461,10 @@
         <v>1</v>
       </c>
       <c r="E51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F51" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1481,10 +1481,10 @@
         <v>1</v>
       </c>
       <c r="E52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F52" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1501,10 +1501,10 @@
         <v>1</v>
       </c>
       <c r="E53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F53" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1521,10 +1521,10 @@
         <v>1</v>
       </c>
       <c r="E54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F54" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1541,10 +1541,10 @@
         <v>1</v>
       </c>
       <c r="E55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F55" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1561,10 +1561,10 @@
         <v>1</v>
       </c>
       <c r="E56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F56" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1581,10 +1581,10 @@
         <v>1</v>
       </c>
       <c r="E57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F57" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1601,10 +1601,10 @@
         <v>1</v>
       </c>
       <c r="E58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F58" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1621,10 +1621,10 @@
         <v>1</v>
       </c>
       <c r="E59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F59" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1641,10 +1641,10 @@
         <v>1</v>
       </c>
       <c r="E60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F60" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1661,10 +1661,10 @@
         <v>1</v>
       </c>
       <c r="E61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F61" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1681,10 +1681,10 @@
         <v>1</v>
       </c>
       <c r="E62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F62" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1701,10 +1701,10 @@
         <v>1</v>
       </c>
       <c r="E63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F63" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1721,10 +1721,10 @@
         <v>1</v>
       </c>
       <c r="E64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F64" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1741,10 +1741,10 @@
         <v>1</v>
       </c>
       <c r="E65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F65" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -1761,10 +1761,10 @@
         <v>1</v>
       </c>
       <c r="E66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F66" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -1781,10 +1781,10 @@
         <v>1</v>
       </c>
       <c r="E67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F67" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -1801,10 +1801,10 @@
         <v>1</v>
       </c>
       <c r="E68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F68" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -1821,10 +1821,10 @@
         <v>1</v>
       </c>
       <c r="E69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F69" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -1841,10 +1841,10 @@
         <v>1</v>
       </c>
       <c r="E70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F70" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -1861,10 +1861,10 @@
         <v>1</v>
       </c>
       <c r="E71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F71" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -1881,10 +1881,10 @@
         <v>1</v>
       </c>
       <c r="E72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F72" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -1901,10 +1901,10 @@
         <v>1</v>
       </c>
       <c r="E73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F73" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -1921,10 +1921,10 @@
         <v>1</v>
       </c>
       <c r="E74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F74" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -1941,10 +1941,10 @@
         <v>1</v>
       </c>
       <c r="E75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F75" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -1961,10 +1961,10 @@
         <v>1</v>
       </c>
       <c r="E76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F76" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -1981,10 +1981,10 @@
         <v>1</v>
       </c>
       <c r="E77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F77" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2001,10 +2001,10 @@
         <v>1</v>
       </c>
       <c r="E78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F78" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2021,10 +2021,10 @@
         <v>1</v>
       </c>
       <c r="E79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F79" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2041,10 +2041,10 @@
         <v>1</v>
       </c>
       <c r="E80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F80" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2061,10 +2061,10 @@
         <v>1</v>
       </c>
       <c r="E81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F81" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2081,10 +2081,10 @@
         <v>1</v>
       </c>
       <c r="E82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F82" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2101,10 +2101,10 @@
         <v>1</v>
       </c>
       <c r="E83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F83" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2121,10 +2121,10 @@
         <v>1</v>
       </c>
       <c r="E84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F84" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2141,10 +2141,10 @@
         <v>1</v>
       </c>
       <c r="E85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F85" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2161,10 +2161,10 @@
         <v>1</v>
       </c>
       <c r="E86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F86" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2181,10 +2181,10 @@
         <v>1</v>
       </c>
       <c r="E87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F87" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2192,7 +2192,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C88">
         <v>0</v>
@@ -2201,7 +2201,7 @@
         <v>1</v>
       </c>
       <c r="E88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F88" s="4">
         <v>0</v>
@@ -2212,7 +2212,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C89">
         <v>0</v>
@@ -2221,7 +2221,7 @@
         <v>1</v>
       </c>
       <c r="E89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F89" s="4">
         <v>0</v>
@@ -2232,7 +2232,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C90">
         <v>0</v>
@@ -2241,7 +2241,7 @@
         <v>1</v>
       </c>
       <c r="E90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F90" s="4">
         <v>0</v>
@@ -2252,7 +2252,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C91">
         <v>0</v>
@@ -2261,7 +2261,7 @@
         <v>1</v>
       </c>
       <c r="E91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F91" s="4">
         <v>0</v>
@@ -2272,7 +2272,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C92">
         <v>0</v>
@@ -2281,7 +2281,7 @@
         <v>1</v>
       </c>
       <c r="E92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F92" s="4">
         <v>0</v>
@@ -2292,7 +2292,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C93">
         <v>0</v>
@@ -2301,7 +2301,7 @@
         <v>1</v>
       </c>
       <c r="E93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F93" s="4">
         <v>0</v>
@@ -2312,7 +2312,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C94">
         <v>0</v>
@@ -2321,7 +2321,7 @@
         <v>1</v>
       </c>
       <c r="E94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F94" s="4">
         <v>0</v>
@@ -2332,7 +2332,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C95">
         <v>0</v>
@@ -2341,7 +2341,7 @@
         <v>1</v>
       </c>
       <c r="E95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F95" s="4">
         <v>0</v>
@@ -2352,7 +2352,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C96">
         <v>0</v>
@@ -2361,7 +2361,7 @@
         <v>1</v>
       </c>
       <c r="E96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F96" s="4">
         <v>0</v>
@@ -2372,7 +2372,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C97">
         <v>0</v>
@@ -2381,7 +2381,7 @@
         <v>1</v>
       </c>
       <c r="E97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F97" s="4">
         <v>0</v>
@@ -2392,7 +2392,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C98">
         <v>0</v>
@@ -2401,7 +2401,7 @@
         <v>1</v>
       </c>
       <c r="E98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F98" s="4">
         <v>0</v>
@@ -2412,7 +2412,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C99">
         <v>0</v>
@@ -2421,7 +2421,7 @@
         <v>1</v>
       </c>
       <c r="E99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F99" s="4">
         <v>0</v>
@@ -2432,7 +2432,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C100">
         <v>0</v>
@@ -2441,7 +2441,7 @@
         <v>1</v>
       </c>
       <c r="E100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F100" s="4">
         <v>0</v>
@@ -2452,7 +2452,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C101">
         <v>0</v>
@@ -2461,7 +2461,7 @@
         <v>1</v>
       </c>
       <c r="E101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F101" s="4">
         <v>0</v>
@@ -2472,7 +2472,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C102">
         <v>0</v>
@@ -2481,7 +2481,7 @@
         <v>1</v>
       </c>
       <c r="E102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F102" s="4">
         <v>0</v>

--- a/shipClassTests/testResults/unmannedShipTestOutput.xlsx
+++ b/shipClassTests/testResults/unmannedShipTestOutput.xlsx
@@ -601,7 +601,7 @@
         <v>2</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F8" s="4">
         <v>2</v>
@@ -621,7 +621,7 @@
         <v>2</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F9" s="4">
         <v>2</v>
@@ -635,13 +635,13 @@
         <v>2</v>
       </c>
       <c r="C10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D10">
         <v>2</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F10" s="4">
         <v>2</v>
@@ -655,13 +655,13 @@
         <v>2</v>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D11">
         <v>2</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F11" s="4">
         <v>2</v>
@@ -675,13 +675,13 @@
         <v>2</v>
       </c>
       <c r="C12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D12">
         <v>2</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12" s="4">
         <v>2</v>
@@ -695,13 +695,13 @@
         <v>2</v>
       </c>
       <c r="C13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D13">
         <v>2</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13" s="4">
         <v>2</v>
@@ -715,13 +715,13 @@
         <v>2</v>
       </c>
       <c r="C14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D14">
         <v>2</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14" s="4">
         <v>2</v>
@@ -735,13 +735,13 @@
         <v>2</v>
       </c>
       <c r="C15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D15">
         <v>2</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15" s="4">
         <v>2</v>
@@ -755,13 +755,13 @@
         <v>2</v>
       </c>
       <c r="C16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D16">
         <v>2</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16" s="4">
         <v>2</v>
@@ -775,13 +775,13 @@
         <v>2</v>
       </c>
       <c r="C17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D17">
         <v>2</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F17" s="4">
         <v>2</v>
@@ -795,13 +795,13 @@
         <v>2</v>
       </c>
       <c r="C18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D18">
         <v>2</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F18" s="4">
         <v>2</v>
@@ -815,13 +815,13 @@
         <v>2</v>
       </c>
       <c r="C19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D19">
         <v>2</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F19" s="4">
         <v>2</v>
@@ -835,13 +835,13 @@
         <v>2</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20">
         <v>2</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F20" s="4">
         <v>2</v>
@@ -855,13 +855,13 @@
         <v>2</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21">
         <v>2</v>
       </c>
       <c r="E21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F21" s="4">
         <v>2</v>
@@ -875,13 +875,13 @@
         <v>2</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D22">
         <v>2</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F22" s="4">
         <v>2</v>
@@ -892,16 +892,16 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F23" s="4">
         <v>2</v>
@@ -912,16 +912,16 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F24" s="4">
         <v>2</v>
@@ -935,13 +935,13 @@
         <v>1</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D25">
         <v>1</v>
       </c>
       <c r="E25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F25" s="4">
         <v>2</v>
@@ -955,16 +955,16 @@
         <v>1</v>
       </c>
       <c r="C26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D26">
         <v>1</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F26" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -975,16 +975,16 @@
         <v>1</v>
       </c>
       <c r="C27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D27">
         <v>1</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F27" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -995,16 +995,16 @@
         <v>1</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D28">
         <v>1</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F28" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1015,16 +1015,16 @@
         <v>1</v>
       </c>
       <c r="C29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D29">
         <v>1</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F29" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1035,16 +1035,16 @@
         <v>1</v>
       </c>
       <c r="C30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D30">
         <v>1</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F30" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1055,16 +1055,16 @@
         <v>1</v>
       </c>
       <c r="C31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D31">
         <v>1</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F31" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1075,16 +1075,16 @@
         <v>1</v>
       </c>
       <c r="C32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D32">
         <v>1</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F32" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="C33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D33">
         <v>1</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F33" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1115,16 +1115,16 @@
         <v>1</v>
       </c>
       <c r="C34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D34">
         <v>1</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F34" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1135,16 +1135,16 @@
         <v>1</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D35">
         <v>1</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F35" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1155,16 +1155,16 @@
         <v>1</v>
       </c>
       <c r="C36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D36">
         <v>1</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F36" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1175,16 +1175,16 @@
         <v>1</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D37">
         <v>1</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F37" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1195,16 +1195,16 @@
         <v>1</v>
       </c>
       <c r="C38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D38">
         <v>1</v>
       </c>
       <c r="E38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F38" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1215,16 +1215,16 @@
         <v>1</v>
       </c>
       <c r="C39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D39">
         <v>1</v>
       </c>
       <c r="E39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F39" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1235,16 +1235,16 @@
         <v>1</v>
       </c>
       <c r="C40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D40">
         <v>1</v>
       </c>
       <c r="E40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F40" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1255,16 +1255,16 @@
         <v>1</v>
       </c>
       <c r="C41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D41">
         <v>1</v>
       </c>
       <c r="E41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F41" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1275,16 +1275,16 @@
         <v>1</v>
       </c>
       <c r="C42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D42">
         <v>1</v>
       </c>
       <c r="E42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F42" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1295,16 +1295,16 @@
         <v>1</v>
       </c>
       <c r="C43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D43">
         <v>1</v>
       </c>
       <c r="E43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F43" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1315,16 +1315,16 @@
         <v>1</v>
       </c>
       <c r="C44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D44">
         <v>1</v>
       </c>
       <c r="E44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F44" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1335,16 +1335,16 @@
         <v>1</v>
       </c>
       <c r="C45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D45">
         <v>1</v>
       </c>
       <c r="E45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F45" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1355,16 +1355,16 @@
         <v>1</v>
       </c>
       <c r="C46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D46">
         <v>1</v>
       </c>
       <c r="E46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F46" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1375,16 +1375,16 @@
         <v>1</v>
       </c>
       <c r="C47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D47">
         <v>1</v>
       </c>
       <c r="E47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F47" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1395,16 +1395,16 @@
         <v>1</v>
       </c>
       <c r="C48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D48">
         <v>1</v>
       </c>
       <c r="E48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F48" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1415,16 +1415,16 @@
         <v>1</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D49">
         <v>1</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F49" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1435,16 +1435,16 @@
         <v>1</v>
       </c>
       <c r="C50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D50">
         <v>1</v>
       </c>
       <c r="E50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F50" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1455,16 +1455,16 @@
         <v>1</v>
       </c>
       <c r="C51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D51">
         <v>1</v>
       </c>
       <c r="E51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F51" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1475,16 +1475,16 @@
         <v>1</v>
       </c>
       <c r="C52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D52">
         <v>1</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F52" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1495,16 +1495,16 @@
         <v>1</v>
       </c>
       <c r="C53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D53">
         <v>1</v>
       </c>
       <c r="E53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F53" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1515,16 +1515,16 @@
         <v>1</v>
       </c>
       <c r="C54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D54">
         <v>1</v>
       </c>
       <c r="E54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F54" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="C55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D55">
         <v>1</v>
       </c>
       <c r="E55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F55" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1555,16 +1555,16 @@
         <v>1</v>
       </c>
       <c r="C56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D56">
         <v>1</v>
       </c>
       <c r="E56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F56" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1575,16 +1575,16 @@
         <v>1</v>
       </c>
       <c r="C57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D57">
         <v>1</v>
       </c>
       <c r="E57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F57" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1595,16 +1595,16 @@
         <v>1</v>
       </c>
       <c r="C58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D58">
         <v>1</v>
       </c>
       <c r="E58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F58" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1615,16 +1615,16 @@
         <v>1</v>
       </c>
       <c r="C59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D59">
         <v>1</v>
       </c>
       <c r="E59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F59" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1635,16 +1635,16 @@
         <v>1</v>
       </c>
       <c r="C60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D60">
         <v>1</v>
       </c>
       <c r="E60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F60" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1655,16 +1655,16 @@
         <v>1</v>
       </c>
       <c r="C61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D61">
         <v>1</v>
       </c>
       <c r="E61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F61" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1675,16 +1675,16 @@
         <v>1</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D62">
         <v>1</v>
       </c>
       <c r="E62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F62" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1695,16 +1695,16 @@
         <v>1</v>
       </c>
       <c r="C63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D63">
         <v>1</v>
       </c>
       <c r="E63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F63" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1715,16 +1715,16 @@
         <v>1</v>
       </c>
       <c r="C64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D64">
         <v>1</v>
       </c>
       <c r="E64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F64" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1735,16 +1735,16 @@
         <v>1</v>
       </c>
       <c r="C65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D65">
         <v>1</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F65" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -1755,16 +1755,16 @@
         <v>1</v>
       </c>
       <c r="C66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D66">
         <v>1</v>
       </c>
       <c r="E66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F66" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -1775,16 +1775,16 @@
         <v>1</v>
       </c>
       <c r="C67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D67">
         <v>1</v>
       </c>
       <c r="E67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F67" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -1795,16 +1795,16 @@
         <v>1</v>
       </c>
       <c r="C68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D68">
         <v>1</v>
       </c>
       <c r="E68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F68" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -1815,16 +1815,16 @@
         <v>1</v>
       </c>
       <c r="C69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D69">
         <v>1</v>
       </c>
       <c r="E69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F69" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -1835,16 +1835,16 @@
         <v>1</v>
       </c>
       <c r="C70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D70">
         <v>1</v>
       </c>
       <c r="E70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F70" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -1855,16 +1855,16 @@
         <v>1</v>
       </c>
       <c r="C71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D71">
         <v>1</v>
       </c>
       <c r="E71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F71" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -1875,16 +1875,16 @@
         <v>1</v>
       </c>
       <c r="C72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D72">
         <v>1</v>
       </c>
       <c r="E72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F72" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -1895,16 +1895,16 @@
         <v>1</v>
       </c>
       <c r="C73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D73">
         <v>1</v>
       </c>
       <c r="E73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F73" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -1915,16 +1915,16 @@
         <v>1</v>
       </c>
       <c r="C74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D74">
         <v>1</v>
       </c>
       <c r="E74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F74" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -1935,16 +1935,16 @@
         <v>1</v>
       </c>
       <c r="C75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D75">
         <v>1</v>
       </c>
       <c r="E75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F75" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -1955,16 +1955,16 @@
         <v>1</v>
       </c>
       <c r="C76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D76">
         <v>1</v>
       </c>
       <c r="E76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F76" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -1975,16 +1975,16 @@
         <v>1</v>
       </c>
       <c r="C77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D77">
         <v>1</v>
       </c>
       <c r="E77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F77" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -1995,16 +1995,16 @@
         <v>1</v>
       </c>
       <c r="C78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D78">
         <v>1</v>
       </c>
       <c r="E78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F78" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2015,16 +2015,16 @@
         <v>1</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D79">
         <v>1</v>
       </c>
       <c r="E79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F79" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2035,16 +2035,16 @@
         <v>1</v>
       </c>
       <c r="C80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D80">
         <v>1</v>
       </c>
       <c r="E80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F80" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2055,16 +2055,16 @@
         <v>1</v>
       </c>
       <c r="C81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D81">
         <v>1</v>
       </c>
       <c r="E81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F81" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2075,16 +2075,16 @@
         <v>1</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D82">
         <v>1</v>
       </c>
       <c r="E82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F82" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2095,16 +2095,16 @@
         <v>1</v>
       </c>
       <c r="C83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D83">
         <v>1</v>
       </c>
       <c r="E83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F83" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2115,16 +2115,16 @@
         <v>1</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D84">
         <v>1</v>
       </c>
       <c r="E84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F84" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2135,16 +2135,16 @@
         <v>1</v>
       </c>
       <c r="C85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D85">
         <v>1</v>
       </c>
       <c r="E85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F85" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="C86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D86">
         <v>1</v>
       </c>
       <c r="E86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F86" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2175,16 +2175,16 @@
         <v>1</v>
       </c>
       <c r="C87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D87">
         <v>1</v>
       </c>
       <c r="E87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F87" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2192,16 +2192,16 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D88">
         <v>1</v>
       </c>
       <c r="E88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F88" s="4">
         <v>0</v>
@@ -2212,16 +2212,16 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D89">
         <v>1</v>
       </c>
       <c r="E89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F89" s="4">
         <v>0</v>
@@ -2232,16 +2232,16 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D90">
         <v>1</v>
       </c>
       <c r="E90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F90" s="4">
         <v>0</v>
@@ -2252,16 +2252,16 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D91">
         <v>1</v>
       </c>
       <c r="E91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F91" s="4">
         <v>0</v>
@@ -2272,16 +2272,16 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D92">
         <v>1</v>
       </c>
       <c r="E92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F92" s="4">
         <v>0</v>
@@ -2292,16 +2292,16 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D93">
         <v>1</v>
       </c>
       <c r="E93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F93" s="4">
         <v>0</v>
@@ -2312,16 +2312,16 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D94">
         <v>1</v>
       </c>
       <c r="E94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F94" s="4">
         <v>0</v>
@@ -2332,16 +2332,16 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D95">
         <v>1</v>
       </c>
       <c r="E95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F95" s="4">
         <v>0</v>
@@ -2352,16 +2352,16 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D96">
         <v>1</v>
       </c>
       <c r="E96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F96" s="4">
         <v>0</v>
@@ -2372,16 +2372,16 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D97">
         <v>1</v>
       </c>
       <c r="E97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F97" s="4">
         <v>0</v>
@@ -2392,16 +2392,16 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D98">
         <v>1</v>
       </c>
       <c r="E98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F98" s="4">
         <v>0</v>
@@ -2412,16 +2412,16 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D99">
         <v>1</v>
       </c>
       <c r="E99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F99" s="4">
         <v>0</v>
@@ -2432,16 +2432,16 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D100">
         <v>1</v>
       </c>
       <c r="E100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F100" s="4">
         <v>0</v>
@@ -2452,16 +2452,16 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D101">
         <v>1</v>
       </c>
       <c r="E101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F101" s="4">
         <v>0</v>
@@ -2472,16 +2472,16 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D102">
         <v>1</v>
       </c>
       <c r="E102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F102" s="4">
         <v>0</v>

--- a/shipClassTests/testResults/unmannedShipTestOutput.xlsx
+++ b/shipClassTests/testResults/unmannedShipTestOutput.xlsx
@@ -601,7 +601,7 @@
         <v>2</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8" s="4">
         <v>2</v>
@@ -635,7 +635,7 @@
         <v>2</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D10">
         <v>2</v>
@@ -752,13 +752,13 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C16">
         <v>1</v>
       </c>
       <c r="D16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -772,13 +772,13 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C17">
         <v>1</v>
       </c>
       <c r="D17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -792,13 +792,13 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C18">
         <v>1</v>
       </c>
       <c r="D18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -812,19 +812,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C19">
         <v>1</v>
       </c>
       <c r="D19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E19">
         <v>1</v>
       </c>
       <c r="F19" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -832,19 +832,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C20">
         <v>1</v>
       </c>
       <c r="D20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E20">
         <v>1</v>
       </c>
       <c r="F20" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -852,19 +852,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C21">
         <v>1</v>
       </c>
       <c r="D21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E21">
         <v>1</v>
       </c>
       <c r="F21" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -872,19 +872,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C22">
         <v>1</v>
       </c>
       <c r="D22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E22">
         <v>1</v>
       </c>
       <c r="F22" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -892,19 +892,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C23">
         <v>1</v>
       </c>
       <c r="D23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E23">
         <v>1</v>
       </c>
       <c r="F23" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -912,19 +912,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C24">
         <v>1</v>
       </c>
       <c r="D24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E24">
         <v>1</v>
       </c>
       <c r="F24" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -944,7 +944,7 @@
         <v>1</v>
       </c>
       <c r="F25" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1335,7 +1335,7 @@
         <v>1</v>
       </c>
       <c r="C45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D45">
         <v>1</v>
@@ -1355,7 +1355,7 @@
         <v>1</v>
       </c>
       <c r="C46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D46">
         <v>1</v>
@@ -1375,7 +1375,7 @@
         <v>1</v>
       </c>
       <c r="C47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D47">
         <v>1</v>
@@ -1395,7 +1395,7 @@
         <v>1</v>
       </c>
       <c r="C48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D48">
         <v>1</v>
@@ -1415,7 +1415,7 @@
         <v>1</v>
       </c>
       <c r="C49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D49">
         <v>1</v>
@@ -1435,7 +1435,7 @@
         <v>1</v>
       </c>
       <c r="C50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D50">
         <v>1</v>
@@ -1455,7 +1455,7 @@
         <v>1</v>
       </c>
       <c r="C51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D51">
         <v>1</v>
@@ -1475,7 +1475,7 @@
         <v>1</v>
       </c>
       <c r="C52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D52">
         <v>1</v>
@@ -1495,7 +1495,7 @@
         <v>1</v>
       </c>
       <c r="C53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D53">
         <v>1</v>
@@ -1515,7 +1515,7 @@
         <v>1</v>
       </c>
       <c r="C54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D54">
         <v>1</v>
@@ -1535,7 +1535,7 @@
         <v>1</v>
       </c>
       <c r="C55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D55">
         <v>1</v>
@@ -1555,7 +1555,7 @@
         <v>1</v>
       </c>
       <c r="C56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D56">
         <v>1</v>
@@ -1575,7 +1575,7 @@
         <v>1</v>
       </c>
       <c r="C57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D57">
         <v>1</v>
@@ -1595,7 +1595,7 @@
         <v>1</v>
       </c>
       <c r="C58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D58">
         <v>1</v>
@@ -1615,7 +1615,7 @@
         <v>1</v>
       </c>
       <c r="C59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D59">
         <v>1</v>
@@ -1635,7 +1635,7 @@
         <v>1</v>
       </c>
       <c r="C60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D60">
         <v>1</v>
@@ -1655,7 +1655,7 @@
         <v>1</v>
       </c>
       <c r="C61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D61">
         <v>1</v>
@@ -1675,7 +1675,7 @@
         <v>1</v>
       </c>
       <c r="C62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D62">
         <v>1</v>
@@ -1695,7 +1695,7 @@
         <v>1</v>
       </c>
       <c r="C63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D63">
         <v>1</v>
@@ -1715,7 +1715,7 @@
         <v>1</v>
       </c>
       <c r="C64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D64">
         <v>1</v>
@@ -1735,7 +1735,7 @@
         <v>1</v>
       </c>
       <c r="C65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D65">
         <v>1</v>
@@ -1755,7 +1755,7 @@
         <v>1</v>
       </c>
       <c r="C66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D66">
         <v>1</v>
@@ -1775,7 +1775,7 @@
         <v>1</v>
       </c>
       <c r="C67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D67">
         <v>1</v>
@@ -1795,7 +1795,7 @@
         <v>1</v>
       </c>
       <c r="C68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D68">
         <v>1</v>
@@ -1815,7 +1815,7 @@
         <v>1</v>
       </c>
       <c r="C69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D69">
         <v>1</v>
@@ -1835,7 +1835,7 @@
         <v>1</v>
       </c>
       <c r="C70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D70">
         <v>1</v>
@@ -1855,7 +1855,7 @@
         <v>1</v>
       </c>
       <c r="C71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D71">
         <v>1</v>
@@ -1875,7 +1875,7 @@
         <v>1</v>
       </c>
       <c r="C72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D72">
         <v>1</v>
@@ -1895,7 +1895,7 @@
         <v>1</v>
       </c>
       <c r="C73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D73">
         <v>1</v>
@@ -1915,7 +1915,7 @@
         <v>1</v>
       </c>
       <c r="C74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D74">
         <v>1</v>
@@ -1935,7 +1935,7 @@
         <v>1</v>
       </c>
       <c r="C75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D75">
         <v>1</v>
@@ -1955,7 +1955,7 @@
         <v>1</v>
       </c>
       <c r="C76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D76">
         <v>1</v>
@@ -1975,7 +1975,7 @@
         <v>1</v>
       </c>
       <c r="C77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D77">
         <v>1</v>
@@ -1995,7 +1995,7 @@
         <v>1</v>
       </c>
       <c r="C78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D78">
         <v>1</v>
@@ -2015,7 +2015,7 @@
         <v>1</v>
       </c>
       <c r="C79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D79">
         <v>1</v>
@@ -2035,7 +2035,7 @@
         <v>1</v>
       </c>
       <c r="C80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D80">
         <v>1</v>
@@ -2055,7 +2055,7 @@
         <v>1</v>
       </c>
       <c r="C81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D81">
         <v>1</v>
@@ -2075,7 +2075,7 @@
         <v>1</v>
       </c>
       <c r="C82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D82">
         <v>1</v>
@@ -2095,7 +2095,7 @@
         <v>1</v>
       </c>
       <c r="C83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D83">
         <v>1</v>
@@ -2115,7 +2115,7 @@
         <v>1</v>
       </c>
       <c r="C84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D84">
         <v>1</v>
@@ -2135,7 +2135,7 @@
         <v>1</v>
       </c>
       <c r="C85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D85">
         <v>1</v>
@@ -2155,7 +2155,7 @@
         <v>1</v>
       </c>
       <c r="C86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D86">
         <v>1</v>
@@ -2175,7 +2175,7 @@
         <v>1</v>
       </c>
       <c r="C87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D87">
         <v>1</v>
@@ -2195,7 +2195,7 @@
         <v>1</v>
       </c>
       <c r="C88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D88">
         <v>1</v>
@@ -2215,7 +2215,7 @@
         <v>1</v>
       </c>
       <c r="C89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D89">
         <v>1</v>
@@ -2235,7 +2235,7 @@
         <v>1</v>
       </c>
       <c r="C90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D90">
         <v>1</v>
@@ -2255,7 +2255,7 @@
         <v>1</v>
       </c>
       <c r="C91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D91">
         <v>1</v>
@@ -2275,7 +2275,7 @@
         <v>1</v>
       </c>
       <c r="C92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D92">
         <v>1</v>
@@ -2295,7 +2295,7 @@
         <v>1</v>
       </c>
       <c r="C93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D93">
         <v>1</v>
@@ -2315,7 +2315,7 @@
         <v>1</v>
       </c>
       <c r="C94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D94">
         <v>1</v>
@@ -2335,7 +2335,7 @@
         <v>1</v>
       </c>
       <c r="C95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D95">
         <v>1</v>
@@ -2355,7 +2355,7 @@
         <v>1</v>
       </c>
       <c r="C96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D96">
         <v>1</v>
@@ -2375,7 +2375,7 @@
         <v>1</v>
       </c>
       <c r="C97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D97">
         <v>1</v>
@@ -2395,7 +2395,7 @@
         <v>1</v>
       </c>
       <c r="C98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D98">
         <v>1</v>
@@ -2415,7 +2415,7 @@
         <v>1</v>
       </c>
       <c r="C99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D99">
         <v>1</v>
@@ -2435,7 +2435,7 @@
         <v>1</v>
       </c>
       <c r="C100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D100">
         <v>1</v>
@@ -2455,7 +2455,7 @@
         <v>1</v>
       </c>
       <c r="C101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D101">
         <v>1</v>
@@ -2475,7 +2475,7 @@
         <v>1</v>
       </c>
       <c r="C102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D102">
         <v>1</v>

--- a/shipClassTests/testResults/unmannedShipTestOutput.xlsx
+++ b/shipClassTests/testResults/unmannedShipTestOutput.xlsx
@@ -621,7 +621,7 @@
         <v>2</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9" s="4">
         <v>2</v>
@@ -641,7 +641,7 @@
         <v>2</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10" s="4">
         <v>2</v>
@@ -655,13 +655,13 @@
         <v>2</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D11">
         <v>2</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11" s="4">
         <v>2</v>
@@ -675,13 +675,13 @@
         <v>2</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D12">
         <v>2</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12" s="4">
         <v>2</v>
@@ -695,13 +695,13 @@
         <v>2</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D13">
         <v>2</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13" s="4">
         <v>2</v>
@@ -715,13 +715,13 @@
         <v>2</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D14">
         <v>2</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14" s="4">
         <v>2</v>
@@ -735,13 +735,13 @@
         <v>2</v>
       </c>
       <c r="C15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D15">
         <v>2</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15" s="4">
         <v>2</v>
@@ -752,16 +752,16 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16" s="4">
         <v>2</v>
@@ -772,16 +772,16 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D17">
         <v>1</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17" s="4">
         <v>2</v>
@@ -792,16 +792,16 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D18">
         <v>1</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18" s="4">
         <v>2</v>
@@ -812,19 +812,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D19">
         <v>1</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -832,16 +832,16 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D20">
         <v>1</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20" s="4">
         <v>0</v>
@@ -852,16 +852,16 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D21">
         <v>1</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21" s="4">
         <v>0</v>
@@ -872,16 +872,16 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D22">
         <v>1</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22" s="4">
         <v>0</v>
@@ -892,16 +892,16 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D23">
         <v>1</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23" s="4">
         <v>0</v>
@@ -912,16 +912,16 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D24">
         <v>1</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24" s="4">
         <v>0</v>
@@ -932,16 +932,16 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D25">
         <v>1</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25" s="4">
         <v>0</v>
@@ -952,16 +952,16 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D26">
         <v>1</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26" s="4">
         <v>0</v>
@@ -972,16 +972,16 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D27">
         <v>1</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F27" s="4">
         <v>0</v>
@@ -992,16 +992,16 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D28">
         <v>1</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F28" s="4">
         <v>0</v>
@@ -1012,16 +1012,16 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D29">
         <v>1</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F29" s="4">
         <v>0</v>
@@ -1032,16 +1032,16 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D30">
         <v>1</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F30" s="4">
         <v>0</v>
@@ -1052,16 +1052,16 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D31">
         <v>1</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F31" s="4">
         <v>0</v>
@@ -1072,16 +1072,16 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D32">
         <v>1</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F32" s="4">
         <v>0</v>
@@ -1092,7 +1092,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -1101,7 +1101,7 @@
         <v>1</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F33" s="4">
         <v>0</v>
@@ -1112,7 +1112,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C34">
         <v>1</v>
@@ -1121,7 +1121,7 @@
         <v>1</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F34" s="4">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C35">
         <v>1</v>
@@ -1141,7 +1141,7 @@
         <v>1</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F35" s="4">
         <v>0</v>
@@ -1152,7 +1152,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C36">
         <v>1</v>
@@ -1161,7 +1161,7 @@
         <v>1</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F36" s="4">
         <v>0</v>
@@ -1172,7 +1172,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C37">
         <v>1</v>
@@ -1181,7 +1181,7 @@
         <v>1</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F37" s="4">
         <v>0</v>
@@ -1192,7 +1192,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C38">
         <v>1</v>
@@ -1201,7 +1201,7 @@
         <v>1</v>
       </c>
       <c r="E38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F38" s="4">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C39">
         <v>1</v>
@@ -1221,7 +1221,7 @@
         <v>1</v>
       </c>
       <c r="E39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F39" s="4">
         <v>0</v>
@@ -1232,7 +1232,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C40">
         <v>1</v>
@@ -1241,7 +1241,7 @@
         <v>1</v>
       </c>
       <c r="E40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F40" s="4">
         <v>0</v>
@@ -1252,7 +1252,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C41">
         <v>1</v>
@@ -1261,7 +1261,7 @@
         <v>1</v>
       </c>
       <c r="E41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F41" s="4">
         <v>0</v>
@@ -1272,7 +1272,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C42">
         <v>1</v>
@@ -1281,7 +1281,7 @@
         <v>1</v>
       </c>
       <c r="E42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F42" s="4">
         <v>0</v>
@@ -1292,7 +1292,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C43">
         <v>1</v>
@@ -1301,7 +1301,7 @@
         <v>1</v>
       </c>
       <c r="E43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F43" s="4">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C44">
         <v>1</v>
@@ -1321,7 +1321,7 @@
         <v>1</v>
       </c>
       <c r="E44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F44" s="4">
         <v>0</v>
@@ -1332,16 +1332,16 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D45">
         <v>1</v>
       </c>
       <c r="E45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F45" s="4">
         <v>0</v>
@@ -1352,16 +1352,16 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D46">
         <v>1</v>
       </c>
       <c r="E46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F46" s="4">
         <v>0</v>
@@ -1372,16 +1372,16 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D47">
         <v>1</v>
       </c>
       <c r="E47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F47" s="4">
         <v>0</v>
@@ -1392,16 +1392,16 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D48">
         <v>1</v>
       </c>
       <c r="E48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F48" s="4">
         <v>0</v>
@@ -1412,16 +1412,16 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D49">
         <v>1</v>
       </c>
       <c r="E49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F49" s="4">
         <v>0</v>
@@ -1432,16 +1432,16 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D50">
         <v>1</v>
       </c>
       <c r="E50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F50" s="4">
         <v>0</v>
@@ -1452,16 +1452,16 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D51">
         <v>1</v>
       </c>
       <c r="E51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F51" s="4">
         <v>0</v>
@@ -1472,16 +1472,16 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D52">
         <v>1</v>
       </c>
       <c r="E52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F52" s="4">
         <v>0</v>
@@ -1492,16 +1492,16 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D53">
         <v>1</v>
       </c>
       <c r="E53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F53" s="4">
         <v>0</v>
@@ -1512,16 +1512,16 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D54">
         <v>1</v>
       </c>
       <c r="E54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F54" s="4">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D55">
         <v>1</v>
       </c>
       <c r="E55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F55" s="4">
         <v>0</v>
@@ -1552,16 +1552,16 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D56">
         <v>1</v>
       </c>
       <c r="E56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F56" s="4">
         <v>0</v>
@@ -1572,16 +1572,16 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D57">
         <v>1</v>
       </c>
       <c r="E57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F57" s="4">
         <v>0</v>
@@ -1592,16 +1592,16 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D58">
         <v>1</v>
       </c>
       <c r="E58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F58" s="4">
         <v>0</v>
@@ -1612,16 +1612,16 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D59">
         <v>1</v>
       </c>
       <c r="E59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F59" s="4">
         <v>0</v>
@@ -1632,16 +1632,16 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D60">
         <v>1</v>
       </c>
       <c r="E60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F60" s="4">
         <v>0</v>
@@ -1652,16 +1652,16 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D61">
         <v>1</v>
       </c>
       <c r="E61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F61" s="4">
         <v>0</v>
@@ -1672,16 +1672,16 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D62">
         <v>1</v>
       </c>
       <c r="E62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F62" s="4">
         <v>0</v>
@@ -1692,16 +1692,16 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D63">
         <v>1</v>
       </c>
       <c r="E63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F63" s="4">
         <v>0</v>
@@ -1712,16 +1712,16 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D64">
         <v>1</v>
       </c>
       <c r="E64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F64" s="4">
         <v>0</v>
@@ -1732,16 +1732,16 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D65">
         <v>1</v>
       </c>
       <c r="E65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F65" s="4">
         <v>0</v>
@@ -1752,16 +1752,16 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D66">
         <v>1</v>
       </c>
       <c r="E66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F66" s="4">
         <v>0</v>
@@ -1772,16 +1772,16 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D67">
         <v>1</v>
       </c>
       <c r="E67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F67" s="4">
         <v>0</v>
@@ -1792,16 +1792,16 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D68">
         <v>1</v>
       </c>
       <c r="E68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F68" s="4">
         <v>0</v>
@@ -1812,16 +1812,16 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D69">
         <v>1</v>
       </c>
       <c r="E69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F69" s="4">
         <v>0</v>
@@ -1832,16 +1832,16 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D70">
         <v>1</v>
       </c>
       <c r="E70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F70" s="4">
         <v>0</v>
@@ -1852,16 +1852,16 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D71">
         <v>1</v>
       </c>
       <c r="E71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F71" s="4">
         <v>0</v>
@@ -1872,16 +1872,16 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D72">
         <v>1</v>
       </c>
       <c r="E72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F72" s="4">
         <v>0</v>
@@ -1892,16 +1892,16 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D73">
         <v>1</v>
       </c>
       <c r="E73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F73" s="4">
         <v>0</v>
@@ -1912,16 +1912,16 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D74">
         <v>1</v>
       </c>
       <c r="E74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F74" s="4">
         <v>0</v>
@@ -1932,16 +1932,16 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D75">
         <v>1</v>
       </c>
       <c r="E75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F75" s="4">
         <v>0</v>
@@ -1952,16 +1952,16 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D76">
         <v>1</v>
       </c>
       <c r="E76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F76" s="4">
         <v>0</v>
@@ -1972,16 +1972,16 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D77">
         <v>1</v>
       </c>
       <c r="E77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F77" s="4">
         <v>0</v>
@@ -1992,16 +1992,16 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D78">
         <v>1</v>
       </c>
       <c r="E78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F78" s="4">
         <v>0</v>
@@ -2012,16 +2012,16 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D79">
         <v>1</v>
       </c>
       <c r="E79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F79" s="4">
         <v>0</v>
@@ -2032,16 +2032,16 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D80">
         <v>1</v>
       </c>
       <c r="E80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F80" s="4">
         <v>0</v>
@@ -2052,16 +2052,16 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D81">
         <v>1</v>
       </c>
       <c r="E81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F81" s="4">
         <v>0</v>
@@ -2072,16 +2072,16 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D82">
         <v>1</v>
       </c>
       <c r="E82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F82" s="4">
         <v>0</v>
@@ -2092,16 +2092,16 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D83">
         <v>1</v>
       </c>
       <c r="E83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F83" s="4">
         <v>0</v>
@@ -2112,16 +2112,16 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D84">
         <v>1</v>
       </c>
       <c r="E84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F84" s="4">
         <v>0</v>
@@ -2132,16 +2132,16 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D85">
         <v>1</v>
       </c>
       <c r="E85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F85" s="4">
         <v>0</v>
@@ -2152,16 +2152,16 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D86">
         <v>1</v>
       </c>
       <c r="E86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F86" s="4">
         <v>0</v>
@@ -2172,16 +2172,16 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D87">
         <v>1</v>
       </c>
       <c r="E87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F87" s="4">
         <v>0</v>
@@ -2192,16 +2192,16 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D88">
         <v>1</v>
       </c>
       <c r="E88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F88" s="4">
         <v>0</v>
@@ -2212,16 +2212,16 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D89">
         <v>1</v>
       </c>
       <c r="E89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F89" s="4">
         <v>0</v>
@@ -2232,16 +2232,16 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D90">
         <v>1</v>
       </c>
       <c r="E90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F90" s="4">
         <v>0</v>
@@ -2252,16 +2252,16 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D91">
         <v>1</v>
       </c>
       <c r="E91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F91" s="4">
         <v>0</v>
@@ -2272,7 +2272,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C92">
         <v>0</v>
@@ -2281,7 +2281,7 @@
         <v>1</v>
       </c>
       <c r="E92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F92" s="4">
         <v>0</v>
@@ -2292,7 +2292,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C93">
         <v>0</v>
@@ -2301,7 +2301,7 @@
         <v>1</v>
       </c>
       <c r="E93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F93" s="4">
         <v>0</v>
@@ -2312,7 +2312,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C94">
         <v>0</v>
@@ -2321,7 +2321,7 @@
         <v>1</v>
       </c>
       <c r="E94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F94" s="4">
         <v>0</v>
@@ -2332,7 +2332,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C95">
         <v>0</v>
@@ -2341,7 +2341,7 @@
         <v>1</v>
       </c>
       <c r="E95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F95" s="4">
         <v>0</v>
@@ -2352,7 +2352,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C96">
         <v>0</v>
@@ -2361,7 +2361,7 @@
         <v>1</v>
       </c>
       <c r="E96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F96" s="4">
         <v>0</v>
@@ -2372,7 +2372,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C97">
         <v>0</v>
@@ -2381,7 +2381,7 @@
         <v>1</v>
       </c>
       <c r="E97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F97" s="4">
         <v>0</v>
@@ -2392,7 +2392,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C98">
         <v>0</v>
@@ -2401,7 +2401,7 @@
         <v>1</v>
       </c>
       <c r="E98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F98" s="4">
         <v>0</v>
@@ -2412,7 +2412,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C99">
         <v>0</v>
@@ -2421,7 +2421,7 @@
         <v>1</v>
       </c>
       <c r="E99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F99" s="4">
         <v>0</v>
@@ -2432,7 +2432,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C100">
         <v>0</v>
@@ -2441,7 +2441,7 @@
         <v>1</v>
       </c>
       <c r="E100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F100" s="4">
         <v>0</v>
@@ -2452,7 +2452,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C101">
         <v>0</v>
@@ -2461,7 +2461,7 @@
         <v>1</v>
       </c>
       <c r="E101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F101" s="4">
         <v>0</v>
@@ -2472,7 +2472,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C102">
         <v>0</v>
@@ -2481,7 +2481,7 @@
         <v>1</v>
       </c>
       <c r="E102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F102" s="4">
         <v>0</v>
